--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_T55.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.2938515800042533</v>
+        <v>-0.1594231591323035</v>
       </c>
       <c r="C2">
-        <v>1.808985646939203</v>
+        <v>2.166676875760148</v>
       </c>
       <c r="D2">
-        <v>17.5453309800192</v>
+        <v>21.0054256432257</v>
       </c>
       <c r="E2">
-        <v>4.188714716953066</v>
+        <v>4.583167642932745</v>
       </c>
       <c r="F2">
-        <v>4.281580472255031</v>
+        <v>4.688182802538006</v>
       </c>
       <c r="G2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.7790371355342729</v>
+        <v>1.531985731461213</v>
       </c>
       <c r="C3">
-        <v>1.470380868890216</v>
+        <v>2.190408334657348</v>
       </c>
       <c r="D3">
-        <v>9.581105349801444</v>
+        <v>22.23247536857726</v>
       </c>
       <c r="E3">
-        <v>3.095336064113466</v>
+        <v>4.715132592894633</v>
       </c>
       <c r="F3">
-        <v>3.07352129465451</v>
+        <v>4.569438679043121</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.4399402888474191</v>
+        <v>0.1839280744050482</v>
       </c>
       <c r="C4">
-        <v>1.201559590688567</v>
+        <v>1.375496811154139</v>
       </c>
       <c r="D4">
-        <v>4.158070768708416</v>
+        <v>5.045429506893796</v>
       </c>
       <c r="E4">
-        <v>2.039134808860958</v>
+        <v>2.246203353860419</v>
       </c>
       <c r="F4">
-        <v>2.045672164842267</v>
+        <v>2.296817012700619</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.6603323772139057</v>
+        <v>0.7234394626237002</v>
       </c>
       <c r="C5">
-        <v>0.8564275224761297</v>
+        <v>0.9092138107668599</v>
       </c>
       <c r="D5">
-        <v>1.064651139768482</v>
+        <v>1.19057716613272</v>
       </c>
       <c r="E5">
-        <v>1.031819334849121</v>
+        <v>1.091135723057732</v>
       </c>
       <c r="F5">
-        <v>0.8158366778844911</v>
+        <v>0.8392138414736595</v>
       </c>
       <c r="G5">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.5177353802255682</v>
+        <v>0.6504688517685921</v>
       </c>
       <c r="C6">
-        <v>0.7823572620873277</v>
+        <v>0.9003895179713651</v>
       </c>
       <c r="D6">
-        <v>0.9957200330268166</v>
+        <v>1.409862684992682</v>
       </c>
       <c r="E6">
-        <v>0.9978577218355413</v>
+        <v>1.187376387247397</v>
       </c>
       <c r="F6">
-        <v>0.8792891964010456</v>
+        <v>1.022153241696681</v>
       </c>
       <c r="G6">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2647928212263136</v>
+        <v>0.1825643023306482</v>
       </c>
       <c r="C7">
-        <v>0.5915320808143881</v>
+        <v>0.6233885466488358</v>
       </c>
       <c r="D7">
-        <v>0.5007651444689128</v>
+        <v>0.5468317524686239</v>
       </c>
       <c r="E7">
-        <v>0.7076476132008874</v>
+        <v>0.7394807316412132</v>
       </c>
       <c r="F7">
-        <v>0.6777609460930778</v>
+        <v>0.738644640359689</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2814155458260334</v>
+        <v>0.1829354492119063</v>
       </c>
       <c r="C8">
-        <v>0.4766166566919826</v>
+        <v>0.5277197406487337</v>
       </c>
       <c r="D8">
-        <v>0.3374249523310048</v>
+        <v>0.421031172732567</v>
       </c>
       <c r="E8">
-        <v>0.5808829075906821</v>
+        <v>0.6488691491607279</v>
       </c>
       <c r="F8">
-        <v>0.525999296813531</v>
+        <v>0.6429646287040099</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">

--- a/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_T55.xlsx
+++ b/1_Result_Tables/4_ifo_QoQ_matched_to_ifoCAST/ifo_qoq_matched_error_tables_T55.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.1594231591323035</v>
+        <v>-0.1362899550126131</v>
       </c>
       <c r="C2">
-        <v>2.166676875760148</v>
+        <v>2.08867529575408</v>
       </c>
       <c r="D2">
-        <v>21.0054256432257</v>
+        <v>20.09818370085882</v>
       </c>
       <c r="E2">
-        <v>4.583167642932745</v>
+        <v>4.48309978707354</v>
       </c>
       <c r="F2">
-        <v>4.688182802538006</v>
+        <v>4.581737469302817</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1.531985731461213</v>
+        <v>1.479266720037939</v>
       </c>
       <c r="C3">
-        <v>2.190408334657348</v>
+        <v>2.107761023088795</v>
       </c>
       <c r="D3">
-        <v>22.23247536857726</v>
+        <v>21.2282041533365</v>
       </c>
       <c r="E3">
-        <v>4.715132592894633</v>
+        <v>4.607407530633306</v>
       </c>
       <c r="F3">
-        <v>4.569438679043121</v>
+        <v>4.466166091718527</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1839280744050482</v>
+        <v>0.1953051818482703</v>
       </c>
       <c r="C4">
-        <v>1.375496811154139</v>
+        <v>1.330132550180737</v>
       </c>
       <c r="D4">
-        <v>5.045429506893796</v>
+        <v>4.813685238236514</v>
       </c>
       <c r="E4">
-        <v>2.246203353860419</v>
+        <v>2.194011221082635</v>
       </c>
       <c r="F4">
-        <v>2.296817012700619</v>
+        <v>2.239267331157384</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.7234394626237002</v>
+        <v>0.7065468732113371</v>
       </c>
       <c r="C5">
-        <v>0.9092138107668599</v>
+        <v>0.8830325039473388</v>
       </c>
       <c r="D5">
-        <v>1.19057716613272</v>
+        <v>1.138482200557635</v>
       </c>
       <c r="E5">
-        <v>1.091135723057732</v>
+        <v>1.066996813752335</v>
       </c>
       <c r="F5">
-        <v>0.8392138414736595</v>
+        <v>0.8203168300068852</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.6504688517685921</v>
+        <v>0.6543568374413384</v>
       </c>
       <c r="C6">
-        <v>0.9003895179713651</v>
+        <v>0.8911237843702812</v>
       </c>
       <c r="D6">
-        <v>1.409862684992682</v>
+        <v>1.363273558160643</v>
       </c>
       <c r="E6">
-        <v>1.187376387247397</v>
+        <v>1.167593061884423</v>
       </c>
       <c r="F6">
-        <v>1.022153241696681</v>
+        <v>0.9934989532409025</v>
       </c>
       <c r="G6">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1825643023306482</v>
+        <v>0.2055713410900566</v>
       </c>
       <c r="C7">
-        <v>0.6233885466488358</v>
+        <v>0.6219053496127894</v>
       </c>
       <c r="D7">
-        <v>0.5468317524686239</v>
+        <v>0.5362322189693115</v>
       </c>
       <c r="E7">
-        <v>0.7394807316412132</v>
+        <v>0.732278785005623</v>
       </c>
       <c r="F7">
-        <v>0.738644640359689</v>
+        <v>0.723208031597916</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1829354492119063</v>
+        <v>0.2066150860819048</v>
       </c>
       <c r="C8">
-        <v>0.5277197406487337</v>
+        <v>0.5311179486106835</v>
       </c>
       <c r="D8">
-        <v>0.421031172732567</v>
+        <v>0.416429203296134</v>
       </c>
       <c r="E8">
-        <v>0.6488691491607279</v>
+        <v>0.6453132598173805</v>
       </c>
       <c r="F8">
-        <v>0.6429646287040099</v>
+        <v>0.6301572205356532</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2379462977082131</v>
+        <v>0.2632867251892846</v>
       </c>
       <c r="C9">
-        <v>0.2685152012306768</v>
+        <v>0.2910766374824335</v>
       </c>
       <c r="D9">
-        <v>0.09807829509149044</v>
+        <v>0.1134320491269004</v>
       </c>
       <c r="E9">
-        <v>0.3131745441307298</v>
+        <v>0.3367967475004775</v>
       </c>
       <c r="F9">
-        <v>0.2146310904744978</v>
+        <v>0.220280195234621</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2502936549417364</v>
+        <v>0.2847860619040521</v>
       </c>
       <c r="C10">
-        <v>0.2502936549417364</v>
+        <v>0.2847860619040521</v>
       </c>
       <c r="D10">
-        <v>0.08802654589186658</v>
+        <v>0.1099954283298057</v>
       </c>
       <c r="E10">
-        <v>0.2966926792016725</v>
+        <v>0.3316555869117926</v>
       </c>
       <c r="F10">
-        <v>0.174515210297923</v>
+        <v>0.1835966098656279</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7">
